--- a/Documents/TableDetail.xlsx
+++ b/Documents/TableDetail.xlsx
@@ -319,17 +319,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,16 +336,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -363,6 +345,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,48 +676,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -730,613 +727,613 @@
       <c r="D4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>50</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>50</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>50</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>50</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>12</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="9"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="7">
         <v>100</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="7">
         <v>50</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="7">
         <v>50</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="9">
         <v>150</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="9">
         <v>20</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="14" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="14" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="15"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="4">
         <v>255</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="3"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8" t="s">
+      <c r="C57" s="4"/>
+      <c r="D57" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="6"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="4">
         <v>100</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="4">
         <v>255</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="4">
         <v>20</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E64" s="16"/>
+      <c r="E64" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
